--- a/data/georgia_census/samegrelo/senaki/education_graduates.xlsx
+++ b/data/georgia_census/samegrelo/senaki/education_graduates.xlsx
@@ -1835,13 +1835,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{558EAFCE-09B2-4357-ADBE-1550127A885D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0B345F2-C82A-4EA9-80B8-3A95BA58DC1B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62225081-76E5-435E-9DE5-7ADC5D1061A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37F51DD1-307A-4C1D-BF0F-9B0FCBEFA61D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F80FFD9-FFE4-417E-B736-7584F06FF409}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{501470A3-C413-4361-97F8-4F882791AA75}"/>
 </file>